--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_270.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_270.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,626 +488,660 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_234</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2015503875968992</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_236</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3535714285714285</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G/3']]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(75.439, 83.381)]</t>
+          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(18.826145, 26.43068)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:02:11.140000', '0:02:13.900000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:11.820000', '0:00:17.361000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_15</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.146875</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A', 'A/7', 'A/b7']]</t>
-        </is>
+          <t>isophonics_160</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_159</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1454741379310345</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C', 'C/5', 'C']]</t>
+          <t>[['Eb:maj', 'Db:maj', 'Ab:maj'], ['Eb:7', 'Ab:maj', 'Eb/3']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(84.787426, 86.815269)]</t>
+          <t>[['E/4', 'D/5', 'A'], ['E:7', 'A', 'E/4']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(159.135941, 175.912358)]</t>
+          <t>[('0:00:45.887000', '0:00:51.649000'), ('0:00:26.006000', '0:00:29.321000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
+          <t>[('0:00:09.172000', '0:00:14.409000'), ('0:00:48.277000', '0:00:54.481000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_54</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_167</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2708333333333333</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(66.98, 77.38)]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(33.31, 47.63)]</t>
+          <t>[('0:00:00.580000', '0:00:10.180000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:02.020000', '0:01:11.860000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_78</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.08980755523877405</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#'], ['F#:maj/A#', 'C#:7', 'F#:maj']]</t>
-        </is>
+          <t>isophonics_50</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.625</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb'], ['Bb', 'F:7', 'Bb']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(20.42, 22.86), (19.14, 21.62)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(43.56, 48.1), (49.56, 55.72)]</t>
+          <t>[('0:00:37.936167', '0:00:42.951678')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_101</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2983870967741936</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'D'], ['A', 'D', 'A']]</t>
-        </is>
+          <t>jaah_30</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2375</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F#/5', 'C#', 'F#/5'], ['C#', 'F#/5', 'C#']]</t>
+          <t>[['Bb', 'F:7', 'Bb']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(37.738798, 41.70941), (39.724104, 43.706326)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(60.391566, 127.006105), (31.46941, 118.925813)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:12.510000', '0:00:13.910000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:00.820000', '0:00:08.800000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_150</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2517482517482518</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D'], ['B:min', 'F#:maj/A#', 'B:min']]</t>
-        </is>
+          <t>isophonics_123</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_275</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1880877742946708</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min'], ['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['A', 'E', 'A'], ['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(0.66, 2.68), (13.74, 16.3)]</t>
+          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(140.48, 145.98), (1.56, 6.9)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:09.156734', '0:00:12.303038'), ('0:00:08.413696', '0:00:11.072593')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:24.401147', '0:00:28.461467'), ('0:00:08.158789', '0:00:22.589990')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_50</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1678571428571429</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G/3']]</t>
-        </is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(22.020589, 24.598004)]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(37.936167, 42.951678)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>[('0:01:36.260000', '0:01:47.180000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:38.620000', '0:00:46.840000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1464285714285714</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(24.631133, 29.751133)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(68.54, 79.0)]</t>
+          <t>[('0:00:24.520000', '0:00:47.240000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
+          <t>[('0:00:21.780000', '0:00:28.040000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_25</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2077922077922078</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:maj/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(13.34, 16.08)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(42.52, 46.36)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+          <t>[('0:02:00.660000', '0:02:02.740000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:33', '0:00:48.220000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_41</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1995172968624296</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F', 'C:7', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_147</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(10.13, 14.45)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(17.9, 21.54)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:19.435000', '0:00:32.669000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5052631578947369</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_35</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
+          <t>[['G:(3,5,b7,b9)', 'C:min', 'E:dim7'], ['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj'], ['F#:dim7', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(132.3, 137.48)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(6.357029, 26.14043)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:12.720000', '0:00:17.020000'), ('0:00:22.360000', '0:00:25.240000'), ('0:00:17.760000', '0:00:19.180000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:13.800000', '0:00:18.440000'), ('0:00:24.260000', '0:00:27.200000'), ('0:00:19.120000', '0:00:20.760000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_35</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.07121848739495798</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab:7', 'Ab:7']]</t>
-        </is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Bb:7']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(30.62, 33.97)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(37.47, 46.19)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:7JXfQmzQwnGvbAVnV9ODpn</t>
-        </is>
-      </c>
+          <t>[('0:00:00.620000', '0:00:26.600000'), ('0:01:10.160000', '0:01:36.100000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:02.060000', '0:00:23.220000'), ('0:00:57.580000', '0:01:19.360000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_1</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2527472527472527</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Ab/5', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(17.016, 22.841)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(65.2, 67.5)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:05.700000', '0:00:19.720000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:09.240000', '0:00:28.040000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_282</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'D']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['Eb/5', 'Bb', 'Bb']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(57.636679, 62.11813)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(8.624535, 15.172562)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
-        </is>
-      </c>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:56.720000', '0:00:58.880000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_225</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1098901098901099</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F#:7', 'G:(3,5)', 'B:min/F#']]</t>
-        </is>
+          <t>schubert-winterreise_160</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_78</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E:7', 'F', 'A:min']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(61.38, 76.56)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(56.35, 63.977)]</t>
+          <t>[('0:01:10.840000', '0:01:35.200000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:53.120000', '0:01:14.300000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>jaah_74</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_126</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2041666666666667</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb'], ['F:7', 'Bb:7', 'Eb']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A'], ['E:7/G#', 'A:7/G', 'D:maj/F#']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(18.07, 19.25), (4.83, 7.28)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(229.44, 238.32), (54.82, 61.8)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
